--- a/article/BuildInsider_1/Docker構成.xlsx
+++ b/article/BuildInsider_1/Docker構成.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>クライアントPC</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Docker クライアント</t>
   </si>
   <si>
-    <t>SSL</t>
-  </si>
-  <si>
     <t>↑コンテナ読込＆起動</t>
   </si>
   <si>
@@ -90,6 +87,18 @@
   </si>
   <si>
     <t>↑ホストポート: 2376</t>
+  </si>
+  <si>
+    <t>SSL/TLS</t>
+  </si>
+  <si>
+    <t>container craete</t>
+  </si>
+  <si>
+    <t>cotainer access</t>
+  </si>
+  <si>
+    <t>container stop by client</t>
   </si>
 </sst>
 </file>
@@ -187,6 +196,15 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,15 +221,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -237,13 +246,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -284,13 +293,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -331,13 +340,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -640,108 +649,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:Z40"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="4:26">
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="4:26">
-      <c r="R3" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="Q3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="Q5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="Q6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="4:26">
-      <c r="Q4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="4:26">
-      <c r="Q5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="4:26">
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="4:26">
-      <c r="D7" s="1" t="s">
+    <row r="8" spans="1:26">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="Q7" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="Q8" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="4:26">
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="Q8" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -753,48 +742,59 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="4:26">
-      <c r="D9" s="1" t="s">
+    <row r="9" spans="1:26">
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="Q9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="Q9" s="7" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="Q10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="9"/>
-    </row>
-    <row r="10" spans="4:26">
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="Q11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="9"/>
-    </row>
-    <row r="11" spans="4:26">
-      <c r="Q11" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -806,100 +806,94 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="15" spans="4:26">
-      <c r="Q15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="4:26">
-      <c r="R16" t="s">
+    <row r="12" spans="1:26">
+      <c r="Q12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="Q16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="R17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:26">
-      <c r="Q17" s="1" t="s">
+    <row r="18" spans="1:26">
+      <c r="Q18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="4:26">
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="Q19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="4:26">
-      <c r="M19" t="s">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="M20" t="s">
         <v>12</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="4:26">
-      <c r="D20" s="1" t="s">
+    <row r="21" spans="1:26">
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-      <c r="Q20" s="4" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="Q21" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="4:26">
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
-      <c r="Q21" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -911,48 +905,59 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="4:26">
-      <c r="D22" s="1" t="s">
+    <row r="22" spans="1:26">
+      <c r="D22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="Q22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="D23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-      <c r="Q22" s="7" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="Q23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="4:26">
-      <c r="Q23" s="7" t="s">
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="Q24" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" spans="4:26">
-      <c r="Q24" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -964,199 +969,218 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="31" spans="4:26">
-      <c r="Q31" s="1" t="s">
+    <row r="25" spans="1:26">
+      <c r="Q25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="Q30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="R31" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="4:26">
-      <c r="R32" t="s">
+    </row>
+    <row r="32" spans="1:26">
+      <c r="Q32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="4:26">
+      <c r="Q33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" spans="4:26">
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="4:26">
-      <c r="Q33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="4:26">
-      <c r="Q34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="3"/>
-    </row>
     <row r="35" spans="4:26">
-      <c r="M35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" t="s">
-        <v>21</v>
-      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="Q35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="4:26">
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
-      <c r="Q36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="6"/>
+      <c r="D36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+      <c r="Q36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="4:26">
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="3"/>
-      <c r="Q37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="9"/>
+      <c r="D37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="Q37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="4:26">
-      <c r="D38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="3"/>
-      <c r="Q38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="9"/>
+      <c r="Q38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="4:26">
-      <c r="Q39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="9"/>
-    </row>
-    <row r="40" spans="4:26">
-      <c r="Q40" s="1" t="s">
+      <c r="Q39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="3"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="Q5:Z5"/>
+    <mergeCell ref="Q3:Z3"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="Q6:Z6"/>
+    <mergeCell ref="D23:L23"/>
     <mergeCell ref="Q21:Z21"/>
     <mergeCell ref="Q22:Z22"/>
     <mergeCell ref="Q23:Z23"/>
     <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q9:Z9"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="Q7:Z7"/>
-    <mergeCell ref="Q5:Z5"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="Q30:Z30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/article/BuildInsider_1/Docker構成.xlsx
+++ b/article/BuildInsider_1/Docker構成.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetuo.asahi\Source\Repos\BuildInsider Docker\article\BuildInsider_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\BuildInsider%20Docker\article\BuildInsider_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>クライアントPC</t>
   </si>
@@ -99,17 +100,56 @@
   </si>
   <si>
     <t>container stop by client</t>
+  </si>
+  <si>
+    <t>Run docker Cassandra and cqlsh</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SSH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンテナ: Cassandra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンテナポート: 9042</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンテナ起動</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンテナ: cqlsh</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Docker ストレージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/usr/local/lib/cassandra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/var/lib/cassandra</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -117,7 +157,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -125,7 +165,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -145,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,11 +237,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,9 +285,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,8 +475,665 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="5610225"/>
+          <a:ext cx="800100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4424363" y="323850"/>
+          <a:ext cx="790575" cy="261939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3209925" y="300038"/>
+          <a:ext cx="0" cy="495301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4981575" y="814388"/>
+          <a:ext cx="9525" cy="152401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4052888" y="485775"/>
+          <a:ext cx="790575" cy="261939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3209925" y="461963"/>
+          <a:ext cx="0" cy="495301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4981575" y="814388"/>
+          <a:ext cx="9525" cy="152401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Snip Single Corner Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1062037" y="4100513"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Snip Single Corner Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833438" y="3128962"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2700338" y="2900363"/>
+          <a:ext cx="1624012" cy="633412"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -77623"/>
+            <a:gd name="adj2" fmla="val 15132"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Docker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホスト上の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/usr/local/lib/cassandra</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をマップした状態</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangular Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="2862264"/>
+          <a:ext cx="1504950" cy="785812"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -104377"/>
+            <a:gd name="adj2" fmla="val 147138"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Cassandra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>コンテナを削除する場合でも、再度マッピングすることでデータを維持できる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangular Callout 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3948113" y="4071937"/>
+          <a:ext cx="1471612" cy="795337"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89273"/>
+            <a:gd name="adj2" fmla="val -4030"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Cassandra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>に書き込んだデータはホスト上の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>データファイルに出力される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,6 +1208,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,6 +1260,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,18 +1431,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q3" s="4" t="s">
         <v>18</v>
       </c>
@@ -676,12 +1456,12 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q5" s="4" t="s">
         <v>3</v>
       </c>
@@ -695,7 +1475,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q6" s="4" t="s">
         <v>6</v>
       </c>
@@ -709,7 +1489,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
         <v>11</v>
       </c>
@@ -717,7 +1497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
@@ -742,7 +1522,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
@@ -767,7 +1547,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
@@ -792,7 +1572,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q11" s="1" t="s">
         <v>9</v>
       </c>
@@ -806,7 +1586,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q12" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,12 +1600,12 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q16" s="4" t="s">
         <v>18</v>
       </c>
@@ -839,12 +1619,12 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q18" s="4" t="s">
         <v>3</v>
       </c>
@@ -858,7 +1638,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q19" s="4" t="s">
         <v>6</v>
       </c>
@@ -872,7 +1652,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>12</v>
       </c>
@@ -880,7 +1660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
@@ -905,7 +1685,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
         <v>1</v>
       </c>
@@ -930,7 +1710,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1735,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q24" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1749,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q25" s="4" t="s">
         <v>2</v>
       </c>
@@ -983,12 +1763,12 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1002,12 +1782,12 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q32" s="4" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1801,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="4:26">
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
       <c r="Q33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1815,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="4:26">
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
         <v>21</v>
       </c>
@@ -1043,7 +1823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="4:26">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D35" s="4" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1848,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
     </row>
-    <row r="36" spans="4:26">
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D36" s="4" t="s">
         <v>1</v>
       </c>
@@ -1093,7 +1873,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="4:26">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D37" s="4" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1898,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="4:26">
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
       <c r="Q38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,7 +1912,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="4:26">
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
       <c r="Q39" s="4" t="s">
         <v>2</v>
       </c>
@@ -1182,6 +1962,487 @@
     <mergeCell ref="Q32:Z32"/>
     <mergeCell ref="Q30:Z30"/>
   </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="6"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="Q10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="Q11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="Q12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="15"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="E33:T33"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E30:T30"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="Q3:X3"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="O23:T23"/>
+    <mergeCell ref="Q13:AF13"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="AA5:AF5"/>
+    <mergeCell ref="Q7:AF7"/>
+    <mergeCell ref="Q8:AF8"/>
+    <mergeCell ref="Q10:AF10"/>
+    <mergeCell ref="Q11:AF11"/>
+    <mergeCell ref="Q12:AF12"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/article/BuildInsider_1/Docker構成.xlsx
+++ b/article/BuildInsider_1/Docker構成.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>クライアントPC</t>
   </si>
@@ -138,6 +138,26 @@
   </si>
   <si>
     <t>/var/lib/cassandra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Docker Azurefile ストレージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FILEサービス: myshare</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cassandraコンテナ１</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンテナ: Cassandra1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンテナ: Cassandra2</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -256,8 +276,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,15 +294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,9 +309,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,6 +1146,886 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
             <a:t>データファイルに出力される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1824038" y="3643313"/>
+          <a:ext cx="790575" cy="261939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="981075" y="3619501"/>
+          <a:ext cx="0" cy="495301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2752725" y="3971926"/>
+          <a:ext cx="9525" cy="152401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Snip Single Corner Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833438" y="3128962"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Snip Single Corner Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1062037" y="7905751"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangular Callout 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643187" y="6505575"/>
+          <a:ext cx="1624012" cy="633412"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -77623"/>
+            <a:gd name="adj2" fmla="val 15132"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Azure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージ上の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>myshare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をマップした状態</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133348</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangular Callout 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848098" y="7286625"/>
+          <a:ext cx="1824039" cy="1042987"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84250"/>
+            <a:gd name="adj2" fmla="val 90575"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ストレージサービスを使用することで、仮想マシンの境界を越えてストレージが利用できる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Docker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>コンテナのクラスタを作成するような場合で活用できる。（後述）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangular Callout 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852862" y="8381998"/>
+          <a:ext cx="1519238" cy="795337"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89273"/>
+            <a:gd name="adj2" fmla="val -4030"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Cassandra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>に書き込んだデータは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Azure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ストレージ上のデータファイルに出力される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3486152" y="10463214"/>
+          <a:ext cx="433386" cy="242886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="981075" y="7181851"/>
+          <a:ext cx="0" cy="495301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2767012" y="10453688"/>
+          <a:ext cx="14288" cy="495303"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Snip Single Corner Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833438" y="6677025"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Snip Single Corner Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1062037" y="8553451"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangular Callout 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2443162" y="9715501"/>
+          <a:ext cx="1395413" cy="700088"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73869"/>
+            <a:gd name="adj2" fmla="val 54588"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Azure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージ上の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>myshare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をマップした状態</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>385764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangular Callout 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4062413" y="10034589"/>
+          <a:ext cx="1323976" cy="700088"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73869"/>
+            <a:gd name="adj2" fmla="val 54588"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Node2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージをマップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>せずに起動</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1443,18 +2346,18 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
@@ -1462,32 +2365,32 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="6"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="6"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
@@ -1498,17 +2401,17 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="Q8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1523,82 +2426,82 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="Q9" s="1" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="Q9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="3"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="Q10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="Q10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="3"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="3"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="6"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1606,18 +2509,18 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R17" t="s">
@@ -1625,32 +2528,32 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
@@ -1661,17 +2564,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
       <c r="Q21" s="7" t="s">
         <v>4</v>
       </c>
@@ -1686,82 +2589,82 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="Q22" s="1" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="Q22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="3"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="Q23" s="1" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="Q23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="3"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="3"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1769,18 +2672,18 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="6"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
@@ -1788,32 +2691,32 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="6"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
@@ -1824,17 +2727,17 @@
       </c>
     </row>
     <row r="35" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
       <c r="Q35" s="7" t="s">
         <v>4</v>
       </c>
@@ -1849,91 +2752,103 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="Q36" s="1" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="3"/>
+      <c r="Q36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="3"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="Q37" s="1" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="3"/>
+      <c r="Q37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="3"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
     </row>
     <row r="38" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="3"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
     </row>
     <row r="39" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="6"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
     <mergeCell ref="Q25:Z25"/>
     <mergeCell ref="Q5:Z5"/>
     <mergeCell ref="Q3:Z3"/>
@@ -1943,24 +2858,12 @@
     <mergeCell ref="Q18:Z18"/>
     <mergeCell ref="Q19:Z19"/>
     <mergeCell ref="Q6:Z6"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="Q8:Z8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1984,16 +2887,16 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="6"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V4" t="s">
@@ -2001,14 +2904,14 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="6"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
@@ -2067,48 +2970,48 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="Q10" s="12" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="Q10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="Q11" s="10" t="s">
         <v>7</v>
       </c>
@@ -2129,17 +3032,17 @@
       <c r="AF11" s="10"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
       <c r="Q12" s="10" t="s">
         <v>8</v>
       </c>
@@ -2205,28 +3108,28 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
@@ -2234,14 +3137,14 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="6"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
@@ -2272,24 +3175,24 @@
       <c r="T25" s="11"/>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="15"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="14"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E27" s="11" t="s">
@@ -2317,24 +3220,24 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E30" s="10" t="s">
@@ -2396,7 +3299,7 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E33" s="11" t="s">
         <v>2</v>
       </c>
@@ -2416,17 +3319,531 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
     </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E44" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E47" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="14"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="3"/>
+      <c r="N60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E64" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+    </row>
+    <row r="65" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E65" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+    </row>
+    <row r="66" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E67" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="18"/>
+      <c r="AA67" s="18"/>
+    </row>
+    <row r="68" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+    </row>
+    <row r="69" spans="5:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+    </row>
+    <row r="70" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+    </row>
+    <row r="71" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E71" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+    </row>
+    <row r="72" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="E33:T33"/>
-    <mergeCell ref="E26:T26"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E30:T30"/>
-    <mergeCell ref="E31:T31"/>
+  <mergeCells count="46">
+    <mergeCell ref="N60:U60"/>
+    <mergeCell ref="E64:AA64"/>
+    <mergeCell ref="E65:AA65"/>
+    <mergeCell ref="E67:AA67"/>
+    <mergeCell ref="E68:AA68"/>
+    <mergeCell ref="E69:AA69"/>
+    <mergeCell ref="E70:AA70"/>
+    <mergeCell ref="E71:AA71"/>
+    <mergeCell ref="E72:AA72"/>
+    <mergeCell ref="E52:T52"/>
+    <mergeCell ref="E49:T49"/>
+    <mergeCell ref="E59:L59"/>
+    <mergeCell ref="E60:L60"/>
+    <mergeCell ref="V62:AA62"/>
+    <mergeCell ref="E45:T45"/>
+    <mergeCell ref="E47:T47"/>
+    <mergeCell ref="E48:T48"/>
+    <mergeCell ref="E50:T50"/>
+    <mergeCell ref="E51:T51"/>
+    <mergeCell ref="E39:L39"/>
+    <mergeCell ref="E40:L40"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="E44:T44"/>
     <mergeCell ref="Q3:X3"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
@@ -2441,6 +3858,15 @@
     <mergeCell ref="Q10:AF10"/>
     <mergeCell ref="Q11:AF11"/>
     <mergeCell ref="Q12:AF12"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="E33:T33"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E30:T30"/>
+    <mergeCell ref="E31:T31"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
